--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.64382557663966</v>
+        <v>10.55138459971081</v>
       </c>
       <c r="C11" t="n">
-        <v>36.54116480316469</v>
+        <v>36.18177337259836</v>
       </c>
       <c r="D11" t="n">
-        <v>46.29082013748915</v>
+        <v>46.01523002568066</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.07689120994825</v>
+        <v>9.737571148780582</v>
       </c>
       <c r="C12" t="n">
-        <v>34.58307875437779</v>
+        <v>33.33217873498126</v>
       </c>
       <c r="D12" t="n">
-        <v>43.65612000667811</v>
+        <v>42.63001148023489</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.769725839285</v>
+        <v>11.2967152324987</v>
       </c>
       <c r="C13" t="n">
-        <v>37.03322578811075</v>
+        <v>38.95205126993952</v>
       </c>
       <c r="D13" t="n">
-        <v>46.68044497797968</v>
+        <v>49.00172240612663</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.52821336658326</v>
+        <v>10.59378529006053</v>
       </c>
       <c r="C11" t="n">
-        <v>36.09798282680186</v>
+        <v>36.3601545776957</v>
       </c>
       <c r="D11" t="n">
-        <v>45.91154577522587</v>
+        <v>46.02336358464351</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.84921946996607</v>
+        <v>0.09967513245908274</v>
       </c>
       <c r="C2" t="n">
-        <v>38.19649653005645</v>
+        <v>0.3288058369876183</v>
       </c>
       <c r="D2" t="n">
-        <v>48.48159614029372</v>
+        <v>0.4240352611789112</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.47639257285054</v>
+        <v>0.1373415860381966</v>
       </c>
       <c r="C3" t="n">
-        <v>44.53093724428246</v>
+        <v>0.4615018506946988</v>
       </c>
       <c r="D3" t="n">
-        <v>58.25479109727498</v>
+        <v>0.5861778674033965</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.80021372188213</v>
+        <v>0.1018723276810912</v>
       </c>
       <c r="C4" t="n">
-        <v>41.35490641896295</v>
+        <v>0.3361269026630451</v>
       </c>
       <c r="D4" t="n">
-        <v>51.22652227296292</v>
+        <v>0.4310419711456861</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.74944967880181</v>
+        <v>0.1018926174819467</v>
       </c>
       <c r="C5" t="n">
-        <v>41.93595431817289</v>
+        <v>0.3402290313132013</v>
       </c>
       <c r="D5" t="n">
-        <v>51.84528510468856</v>
+        <v>0.4326613757019335</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.74029702387569</v>
+        <v>0.1032992160291275</v>
       </c>
       <c r="C6" t="n">
-        <v>41.9991782965376</v>
+        <v>0.3459464266098836</v>
       </c>
       <c r="D6" t="n">
-        <v>51.23259130696353</v>
+        <v>0.4404326471715972</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.36802048894253</v>
+        <v>0.1181304309619768</v>
       </c>
       <c r="C7" t="n">
-        <v>44.71983261498483</v>
+        <v>0.3982095834669104</v>
       </c>
       <c r="D7" t="n">
-        <v>54.80154845536167</v>
+        <v>0.500824896661327</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.48813211811047</v>
+        <v>0.1372881823605941</v>
       </c>
       <c r="C8" t="n">
-        <v>44.55420998593833</v>
+        <v>0.461130217086979</v>
       </c>
       <c r="D8" t="n">
-        <v>58.34560074892575</v>
+        <v>0.5865887497683088</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.63020925966918</v>
+        <v>0.1380996831560717</v>
       </c>
       <c r="C9" t="n">
-        <v>45.11639491787711</v>
+        <v>0.4638237167340029</v>
       </c>
       <c r="D9" t="n">
-        <v>59.11550220344398</v>
+        <v>0.5903737580768065</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.82132787317637</v>
+        <v>0.01837909633932694</v>
       </c>
       <c r="C10" t="n">
-        <v>13.89613000503333</v>
+        <v>0.0865655363636115</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00578993931516</v>
+        <v>0.09845267867180098</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.59378529006053</v>
+        <v>0.1518770187180185</v>
       </c>
       <c r="C11" t="n">
-        <v>36.3601545776957</v>
+        <v>0.4911095953273228</v>
       </c>
       <c r="D11" t="n">
-        <v>46.02336358464351</v>
+        <v>0.5841852792217529</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.737571148780582</v>
+        <v>0.1536071066618508</v>
       </c>
       <c r="C12" t="n">
-        <v>33.33217873498126</v>
+        <v>0.4980631853594925</v>
       </c>
       <c r="D12" t="n">
-        <v>42.63001148023489</v>
+        <v>0.5894425570831788</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.2967152324987</v>
+        <v>0.1488533833884717</v>
       </c>
       <c r="C13" t="n">
-        <v>38.95205126993952</v>
+        <v>0.4787863656988596</v>
       </c>
       <c r="D13" t="n">
-        <v>49.00172240612663</v>
+        <v>0.5795989683608325</v>
       </c>
     </row>
   </sheetData>
